--- a/322-paramétrage-ig/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/322-paramétrage-ig/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T07:38:59+00:00</t>
+    <t>2025-07-08T07:41:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/322-paramétrage-ig/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/322-paramétrage-ig/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T07:41:04+00:00</t>
+    <t>2025-07-08T07:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
